--- a/WEB/Uploads/QLXe.xlsx
+++ b/WEB/Uploads/QLXe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tên chủ xe</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>(Có thể bỏ trống)</t>
+  </si>
+  <si>
+    <t>0325789898</t>
   </si>
 </sst>
 </file>
@@ -101,12 +104,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -121,6 +121,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,57 +410,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22" style="9" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>325789898</v>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
